--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2503897.782949921</v>
+        <v>-2506466.206388868</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10116307.12854491</v>
+        <v>10116307.12854492</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1370,13 +1370,13 @@
         <v>355.8126253390002</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.3516754465272</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7618252962026</v>
+        <v>211.620649578354</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0091537477815</v>
+        <v>355.0091537477814</v>
       </c>
       <c r="F11" t="n">
         <v>379.9548294172311</v>
@@ -1388,7 +1388,7 @@
         <v>267.6865480628401</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65571344844562</v>
+        <v>14.65571344844556</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26654546369548</v>
+        <v>82.26654546369545</v>
       </c>
       <c r="T11" t="n">
         <v>176.9967538151398</v>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8310421456546</v>
+        <v>300.8310421456545</v>
       </c>
       <c r="W11" t="n">
-        <v>222.2104997286805</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3167223315733</v>
+        <v>359.3167223315732</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>152.9107638574569</v>
       </c>
       <c r="C13" t="n">
         <v>140.3256047741475</v>
@@ -1534,19 +1534,19 @@
         <v>121.694256693732</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5127463220888</v>
       </c>
       <c r="F13" t="n">
-        <v>92.66657386553348</v>
+        <v>118.4998316984509</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1045919345479</v>
+        <v>139.1045919345478</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8337985898404</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43120408535773</v>
+        <v>9.173861088524596</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01093634556695</v>
       </c>
       <c r="S13" t="n">
         <v>162.8478090069615</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6277329516889</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2906218811326</v>
+        <v>259.2906218811325</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2164269993477</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6017820121107</v>
+        <v>259.6017820121106</v>
       </c>
       <c r="X13" t="n">
         <v>198.7884390645568</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6634370276145</v>
+        <v>191.6634370276144</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>338.3516754465272</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>327.7618252962026</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0091537477814</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9548294172311</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>384.0005093289731</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6865480628401</v>
+        <v>217.0466642538158</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65571344844565</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26654546369549</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9967538151398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>224.0739556344216</v>
@@ -1667,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>300.5770054833808</v>
+        <v>322.3197523929326</v>
       </c>
       <c r="X14" t="n">
         <v>342.8098843539887</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3167223315733</v>
+        <v>359.3167223315732</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.910763857457</v>
+        <v>152.9107638574569</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3256047741475</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.694256693732</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>21.93093654054922</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1045919345479</v>
+        <v>139.1045919345478</v>
       </c>
       <c r="H16" t="n">
         <v>117.8337985898404</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43120408535773</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01093634556702</v>
+        <v>62.01093634556696</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8478090069616</v>
+        <v>162.8478090069615</v>
       </c>
       <c r="T16" t="n">
-        <v>21.97001210971539</v>
+        <v>192.6277329516888</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2906218811326</v>
+        <v>259.2906218811325</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2164269993477</v>
+        <v>225.2164269993476</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6017820121107</v>
+        <v>259.6017820121106</v>
       </c>
       <c r="X16" t="n">
         <v>198.7884390645568</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6634370276145</v>
+        <v>191.6634370276144</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>308.8374887204076</v>
       </c>
       <c r="C17" t="n">
-        <v>267.1768855578932</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7866886776101</v>
+        <v>280.78668867761</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0340171291889</v>
+        <v>308.0340171291888</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9796927986386</v>
+        <v>332.9796927986384</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0253727103806</v>
+        <v>337.0253727103805</v>
       </c>
       <c r="H17" t="n">
         <v>220.7114114442475</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29140884510294</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0216171965473</v>
+        <v>130.0216171965472</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0988190158291</v>
+        <v>177.098819015829</v>
       </c>
       <c r="V17" t="n">
-        <v>253.855905527062</v>
+        <v>253.8559055270619</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3446157743401</v>
+        <v>275.34461577434</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8347477353961</v>
+        <v>295.834747735396</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3415857129806</v>
+        <v>305.9723913955696</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9356272388644</v>
+        <v>105.9356272388643</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35046815555492</v>
+        <v>93.35046815555486</v>
       </c>
       <c r="D19" t="n">
-        <v>74.71912007513944</v>
+        <v>74.71912007513939</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53760970349626</v>
+        <v>72.5376097034962</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52469507985833</v>
+        <v>71.52469507985828</v>
       </c>
       <c r="G19" t="n">
-        <v>92.12945531595531</v>
+        <v>92.12945531595525</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85866197124787</v>
+        <v>70.85866197124781</v>
       </c>
       <c r="I19" t="n">
-        <v>22.4560674667652</v>
+        <v>22.45606746676514</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03579972697443</v>
+        <v>15.03579972697437</v>
       </c>
       <c r="S19" t="n">
-        <v>115.872672388369</v>
+        <v>115.8726723883689</v>
       </c>
       <c r="T19" t="n">
-        <v>208.0694063257215</v>
+        <v>208.0694063257222</v>
       </c>
       <c r="U19" t="n">
         <v>212.3154852625399</v>
       </c>
       <c r="V19" t="n">
-        <v>178.2412903807551</v>
+        <v>178.241290380755</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6266453935181</v>
+        <v>212.626645393518</v>
       </c>
       <c r="X19" t="n">
         <v>151.8133024459642</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6883004090219</v>
+        <v>144.6883004090218</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8374887204077</v>
+        <v>229.6562522570206</v>
       </c>
       <c r="C20" t="n">
         <v>291.3765388279346</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7866886776101</v>
+        <v>280.78668867761</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>308.0340171291888</v>
       </c>
       <c r="F20" t="n">
-        <v>307.9765679373781</v>
+        <v>332.9796927986384</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0253727103806</v>
+        <v>337.0253727103805</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7114114442476</v>
+        <v>220.7114114442475</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29140884510294</v>
+        <v>35.29140884510288</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0216171965473</v>
+        <v>130.0216171965472</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0988190158291</v>
+        <v>177.098819015829</v>
       </c>
       <c r="V20" t="n">
-        <v>253.855905527062</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3446157743401</v>
+        <v>275.34461577434</v>
       </c>
       <c r="X20" t="n">
-        <v>295.8347477353961</v>
+        <v>295.834747735396</v>
       </c>
       <c r="Y20" t="n">
         <v>312.3415857129806</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9356272388644</v>
+        <v>105.9356272388643</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35046815555492</v>
+        <v>93.35046815555486</v>
       </c>
       <c r="D22" t="n">
-        <v>74.71912007513944</v>
+        <v>74.71912007513939</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53760970349626</v>
+        <v>72.5376097034962</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52469507985833</v>
+        <v>71.52469507985828</v>
       </c>
       <c r="G22" t="n">
-        <v>92.12945531595531</v>
+        <v>92.12945531595525</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85866197124787</v>
+        <v>70.85866197124781</v>
       </c>
       <c r="I22" t="n">
-        <v>22.4560674667652</v>
+        <v>22.45606746676514</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03579972697443</v>
+        <v>15.03579972697437</v>
       </c>
       <c r="S22" t="n">
-        <v>115.872672388369</v>
+        <v>115.8726723883689</v>
       </c>
       <c r="T22" t="n">
-        <v>208.0694063257215</v>
+        <v>145.6525963330962</v>
       </c>
       <c r="U22" t="n">
         <v>212.3154852625399</v>
       </c>
       <c r="V22" t="n">
-        <v>178.2412903807551</v>
+        <v>178.241290380755</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6266453935181</v>
+        <v>212.626645393518</v>
       </c>
       <c r="X22" t="n">
         <v>151.8133024459642</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6883004090219</v>
+        <v>207.1051104016476</v>
       </c>
     </row>
     <row r="23">
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8374887204077</v>
+        <v>308.8374887204076</v>
       </c>
       <c r="C23" t="n">
         <v>291.3765388279346</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7866886776101</v>
+        <v>280.78668867761</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0340171291889</v>
+        <v>308.0340171291888</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9796927986386</v>
+        <v>332.9796927986384</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0253727103806</v>
+        <v>337.0253727103805</v>
       </c>
       <c r="H23" t="n">
         <v>220.7114114442475</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29140884510294</v>
+        <v>35.29140884510288</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0216171965473</v>
+        <v>130.0216171965472</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0988190158291</v>
+        <v>177.098819015829</v>
       </c>
       <c r="V23" t="n">
-        <v>253.855905527062</v>
+        <v>253.8559055270619</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3446157743401</v>
+        <v>275.34461577434</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8347477353961</v>
+        <v>295.834747735396</v>
       </c>
       <c r="Y23" t="n">
         <v>312.3415857129806</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9356272388644</v>
+        <v>105.9356272388643</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35046815555492</v>
+        <v>93.35046815555486</v>
       </c>
       <c r="D25" t="n">
-        <v>137.1359300677645</v>
+        <v>74.71912007513939</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53760970349626</v>
+        <v>72.5376097034962</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52469507985833</v>
+        <v>71.52469507985828</v>
       </c>
       <c r="G25" t="n">
-        <v>92.12945531595531</v>
+        <v>92.12945531595525</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85866197124787</v>
+        <v>70.85866197124781</v>
       </c>
       <c r="I25" t="n">
-        <v>22.4560674667652</v>
+        <v>22.45606746676514</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03579972697443</v>
+        <v>15.03579972697437</v>
       </c>
       <c r="S25" t="n">
-        <v>115.872672388369</v>
+        <v>178.2894823809948</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6525963330963</v>
+        <v>145.6525963330962</v>
       </c>
       <c r="U25" t="n">
         <v>212.3154852625399</v>
       </c>
       <c r="V25" t="n">
-        <v>178.2412903807551</v>
+        <v>178.241290380755</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6266453935181</v>
+        <v>212.626645393518</v>
       </c>
       <c r="X25" t="n">
         <v>151.8133024459642</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6883004090219</v>
+        <v>144.6883004090218</v>
       </c>
     </row>
     <row r="26">
@@ -2558,16 +2558,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124556</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3743,16 +3743,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
         <v>247.6326277687279</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3800,10 +3800,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
         <v>339.262802037461</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1813.046034918521</v>
+        <v>2037.50108514951</v>
       </c>
       <c r="C11" t="n">
-        <v>1813.046034918521</v>
+        <v>1695.731716011604</v>
       </c>
       <c r="D11" t="n">
-        <v>1481.973484114275</v>
+        <v>1481.973484114276</v>
       </c>
       <c r="E11" t="n">
         <v>1123.378379318537</v>
@@ -5030,61 +5030,61 @@
         <v>739.5856223314347</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7063199789368</v>
+        <v>351.7063199789366</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31586739020932</v>
+        <v>81.31586739020921</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.508300938772</v>
+        <v>3242.50830093877</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.723701125499</v>
+        <v>3063.723701125498</v>
       </c>
       <c r="U11" t="n">
-        <v>3063.723701125499</v>
+        <v>3063.723701125498</v>
       </c>
       <c r="V11" t="n">
-        <v>2759.853961584434</v>
+        <v>2759.853961584433</v>
       </c>
       <c r="W11" t="n">
-        <v>2535.398911353444</v>
+        <v>2759.853961584433</v>
       </c>
       <c r="X11" t="n">
-        <v>2535.398911353444</v>
+        <v>2759.853961584433</v>
       </c>
       <c r="Y11" t="n">
-        <v>2172.452727180137</v>
+        <v>2396.907777411127</v>
       </c>
     </row>
     <row r="12">
@@ -5094,64 +5094,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064626</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>635.4234612335156</v>
+        <v>840.395642797165</v>
       </c>
       <c r="C13" t="n">
-        <v>493.680426108114</v>
+        <v>698.6526076717637</v>
       </c>
       <c r="D13" t="n">
-        <v>370.7569344982837</v>
+        <v>575.7291160619334</v>
       </c>
       <c r="E13" t="n">
-        <v>370.7569344982837</v>
+        <v>455.0091702820457</v>
       </c>
       <c r="F13" t="n">
-        <v>277.1543346341084</v>
+        <v>335.3123705866408</v>
       </c>
       <c r="G13" t="n">
-        <v>136.6446458113327</v>
+        <v>194.8026817638652</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6446458113327</v>
+        <v>75.77864278422844</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2867530403545</v>
+        <v>138.2867530403546</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9259401504663</v>
+        <v>368.9259401504667</v>
       </c>
       <c r="L13" t="n">
-        <v>712.137742760198</v>
+        <v>712.1377427601983</v>
       </c>
       <c r="M13" t="n">
-        <v>1082.946792520982</v>
+        <v>1082.946792520983</v>
       </c>
       <c r="N13" t="n">
         <v>1451.007173388083</v>
@@ -5221,28 +5221,28 @@
         <v>2140.510581378377</v>
       </c>
       <c r="R13" t="n">
-        <v>2140.510581378377</v>
+        <v>2077.873271938411</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.017845007709</v>
+        <v>1913.380535567742</v>
       </c>
       <c r="T13" t="n">
-        <v>1781.44437737974</v>
+        <v>1913.380535567742</v>
       </c>
       <c r="U13" t="n">
-        <v>1519.534658307889</v>
+        <v>1651.470816495891</v>
       </c>
       <c r="V13" t="n">
-        <v>1292.043317904508</v>
+        <v>1651.470816495891</v>
       </c>
       <c r="W13" t="n">
-        <v>1029.819295670052</v>
+        <v>1389.246794261436</v>
       </c>
       <c r="X13" t="n">
-        <v>829.0228925745403</v>
+        <v>1188.450391165924</v>
       </c>
       <c r="Y13" t="n">
-        <v>635.4234612335156</v>
+        <v>994.8509598248992</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1465.147748456443</v>
+        <v>1705.067498324406</v>
       </c>
       <c r="C14" t="n">
-        <v>1123.378379318537</v>
+        <v>1363.298129186499</v>
       </c>
       <c r="D14" t="n">
-        <v>1123.378379318537</v>
+        <v>1032.225578382254</v>
       </c>
       <c r="E14" t="n">
-        <v>1123.378379318537</v>
+        <v>673.6304735865156</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5856223314347</v>
+        <v>673.6304735865156</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7063199789368</v>
+        <v>285.7511712340174</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31586739020935</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5297,31 +5297,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.508300938771</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.723701125498</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.38637220184</v>
+        <v>3099.268492685512</v>
       </c>
       <c r="V14" t="n">
-        <v>2837.38637220184</v>
+        <v>3099.268492685512</v>
       </c>
       <c r="W14" t="n">
-        <v>2533.77323534994</v>
+        <v>2773.692985217903</v>
       </c>
       <c r="X14" t="n">
-        <v>2187.500624891366</v>
+        <v>2427.420374759329</v>
       </c>
       <c r="Y14" t="n">
-        <v>1824.55444071806</v>
+        <v>2064.474190586022</v>
       </c>
     </row>
     <row r="15">
@@ -5349,10 +5349,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
@@ -5367,13 +5367,13 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>590.7123709698277</v>
+        <v>418.3308347658149</v>
       </c>
       <c r="C16" t="n">
-        <v>448.9693358444262</v>
+        <v>418.3308347658149</v>
       </c>
       <c r="D16" t="n">
-        <v>326.0458442345955</v>
+        <v>418.3308347658149</v>
       </c>
       <c r="E16" t="n">
-        <v>326.0458442345955</v>
+        <v>418.3308347658149</v>
       </c>
       <c r="F16" t="n">
-        <v>326.0458442345955</v>
+        <v>396.178373613745</v>
       </c>
       <c r="G16" t="n">
-        <v>185.5361554118199</v>
+        <v>255.6686847909694</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>136.6446458113326</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2867530403546</v>
+        <v>138.2867530403545</v>
       </c>
       <c r="K16" t="n">
         <v>368.9259401504664</v>
@@ -5443,43 +5443,43 @@
         <v>712.1377427601981</v>
       </c>
       <c r="M16" t="n">
-        <v>1082.946792520982</v>
+        <v>1082.946792520983</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.007173388082</v>
+        <v>1451.007173388083</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.988776469731</v>
+        <v>1776.988776469732</v>
       </c>
       <c r="P16" t="n">
         <v>2036.248281064626</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.510581378376</v>
+        <v>2140.510581378377</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.873271938409</v>
+        <v>2077.87327193841</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.380535567741</v>
+        <v>1913.380535567742</v>
       </c>
       <c r="T16" t="n">
-        <v>1891.188604143787</v>
+        <v>1718.807067939774</v>
       </c>
       <c r="U16" t="n">
-        <v>1629.278885071935</v>
+        <v>1456.897348867923</v>
       </c>
       <c r="V16" t="n">
-        <v>1401.787544668554</v>
+        <v>1229.406008464541</v>
       </c>
       <c r="W16" t="n">
-        <v>1139.563522434099</v>
+        <v>967.181986230086</v>
       </c>
       <c r="X16" t="n">
-        <v>938.7671193385867</v>
+        <v>766.3855831345741</v>
       </c>
       <c r="Y16" t="n">
-        <v>745.167687997562</v>
+        <v>572.7861517935494</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1830.869761197798</v>
+        <v>1560.994119220128</v>
       </c>
       <c r="C17" t="n">
         <v>1560.994119220128</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.371201363956</v>
+        <v>1277.371201363957</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2257295162908</v>
+        <v>966.225729516291</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8826054772619</v>
+        <v>629.8826054772624</v>
       </c>
       <c r="G17" t="n">
         <v>289.4529360728375</v>
@@ -5513,52 +5513,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.957933886844</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.622967021644</v>
+        <v>3194.270854743971</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.73527104606</v>
+        <v>3015.383158768386</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.315164453068</v>
+        <v>2758.963052175394</v>
       </c>
       <c r="W17" t="n">
-        <v>2445.189289933532</v>
+        <v>2480.837177655859</v>
       </c>
       <c r="X17" t="n">
-        <v>2146.366312423031</v>
+        <v>2182.014200145358</v>
       </c>
       <c r="Y17" t="n">
-        <v>1830.869761197798</v>
+        <v>1872.951178533671</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>936.5735814686066</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>827.064395508012</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>1525.704024291643</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1142151877565</v>
+        <v>569.1142151877561</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8208130104283</v>
+        <v>474.820813010428</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3469543486713</v>
+        <v>399.346954348671</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0766415168569</v>
+        <v>326.0766415168566</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8294747695252</v>
+        <v>253.8294747695251</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7694188948229</v>
+        <v>160.7694188948228</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19501286325936</v>
+        <v>89.19501286325931</v>
       </c>
       <c r="I19" t="n">
         <v>66.5121164321834</v>
@@ -5704,19 +5704,19 @@
         <v>1584.892650673275</v>
       </c>
       <c r="U19" t="n">
-        <v>1370.432564549498</v>
+        <v>1370.432564549497</v>
       </c>
       <c r="V19" t="n">
         <v>1190.390857094189</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6164678078076</v>
+        <v>975.6164678078069</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2696976603689</v>
+        <v>822.2696976603684</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1198992674175</v>
+        <v>676.1198992674171</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1518.912701884256</v>
+        <v>1855.313855409962</v>
       </c>
       <c r="C20" t="n">
-        <v>1224.592965694423</v>
+        <v>1560.994119220129</v>
       </c>
       <c r="D20" t="n">
-        <v>940.970047838251</v>
+        <v>1277.371201363957</v>
       </c>
       <c r="E20" t="n">
-        <v>940.970047838251</v>
+        <v>966.2257295162915</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8826054772621</v>
+        <v>629.8826054772627</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4529360728376</v>
+        <v>289.4529360728375</v>
       </c>
       <c r="H20" t="n">
         <v>66.5121164321834</v>
@@ -5750,10 +5750,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5783,19 +5783,19 @@
         <v>3158.622967021645</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.735271046061</v>
+        <v>2979.73527104606</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.315164453069</v>
+        <v>2979.73527104606</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.189289933533</v>
+        <v>2701.609396526525</v>
       </c>
       <c r="X20" t="n">
-        <v>2146.366312423032</v>
+        <v>2402.786419016024</v>
       </c>
       <c r="Y20" t="n">
-        <v>1830.869761197799</v>
+        <v>2087.289867790791</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1142151877565</v>
+        <v>569.1142151877561</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8208130104283</v>
+        <v>474.820813010428</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3469543486713</v>
+        <v>399.346954348671</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0766415168569</v>
+        <v>326.0766415168566</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8294747695252</v>
+        <v>253.8294747695251</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7694188948229</v>
+        <v>160.7694188948228</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19501286325936</v>
+        <v>89.19501286325931</v>
       </c>
       <c r="I22" t="n">
         <v>66.5121164321834</v>
@@ -5938,22 +5938,22 @@
         <v>1795.063768174004</v>
       </c>
       <c r="T22" t="n">
-        <v>1584.892650673275</v>
+        <v>1647.939933494109</v>
       </c>
       <c r="U22" t="n">
-        <v>1370.432564549498</v>
+        <v>1433.479847370331</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.390857094189</v>
+        <v>1253.438139915023</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6164678078076</v>
+        <v>1038.663750628641</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2696976603689</v>
+        <v>885.3169804812026</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1198992674175</v>
+        <v>676.1198992674171</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.179185073752</v>
+        <v>1862.179185073751</v>
       </c>
       <c r="C23" t="n">
         <v>1567.859448883919</v>
@@ -5972,7 +5972,7 @@
         <v>1284.236531027747</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0910591800814</v>
+        <v>973.0910591800813</v>
       </c>
       <c r="F23" t="n">
         <v>636.7479351410525</v>
@@ -5981,43 +5981,43 @@
         <v>296.3182657366274</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37744609597335</v>
+        <v>73.37744609597331</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37744609597335</v>
+        <v>73.37744609597331</v>
       </c>
       <c r="J23" t="n">
         <v>262.2565770549987</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0759507448452</v>
+        <v>657.2260078429924</v>
       </c>
       <c r="L23" t="n">
-        <v>1047.110163993254</v>
+        <v>1108.260221091401</v>
       </c>
       <c r="M23" t="n">
-        <v>1580.642068665178</v>
+        <v>1641.792125763325</v>
       </c>
       <c r="N23" t="n">
-        <v>2127.42088572396</v>
+        <v>2188.570942822108</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.794510129005</v>
+        <v>2691.543413701444</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.568876486182</v>
+        <v>3086.317780058622</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.855238241865</v>
+        <v>3544.79598256761</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.872304798667</v>
+        <v>3668.872304798665</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.224417076341</v>
+        <v>3633.224417076339</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.889450211142</v>
+        <v>3501.88945021114</v>
       </c>
       <c r="U23" t="n">
         <v>3323.001754235556</v>
@@ -6026,13 +6026,13 @@
         <v>3066.581647642564</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.455773123029</v>
+        <v>2788.455773123028</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.632795612528</v>
+        <v>2489.632795612527</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.136244387295</v>
+        <v>2174.136244387294</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6060,31 @@
         <v>182.8866320565679</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38473769443542</v>
+        <v>92.38473769443539</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37744609597335</v>
+        <v>73.37744609597331</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0547155865914</v>
+        <v>167.0547155865906</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3189145669385</v>
+        <v>405.3189145669377</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0170748796038</v>
+        <v>772.0170748796029</v>
       </c>
       <c r="M24" t="n">
-        <v>1219.29340010192</v>
+        <v>1219.293400101919</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816443656374</v>
+        <v>1692.816443656373</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.777723074429</v>
+        <v>2103.777723074428</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.277314550532</v>
+        <v>2414.277314550531</v>
       </c>
       <c r="Q24" t="n">
         <v>2571.918872197131</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0268276723799</v>
+        <v>575.9795448515461</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7334254950517</v>
+        <v>481.6861426742179</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2122840124613</v>
+        <v>406.2122840124609</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9419711806469</v>
+        <v>332.9419711806465</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6948044333152</v>
+        <v>260.694804433315</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6347485586128</v>
+        <v>167.6347485586127</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06034252704931</v>
+        <v>96.06034252704922</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37744609597335</v>
+        <v>73.37744609597331</v>
       </c>
       <c r="J25" t="n">
         <v>118.5000785429089</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4872614917852</v>
+        <v>322.4872614917851</v>
       </c>
       <c r="L25" t="n">
         <v>639.0470599402813</v>
@@ -6172,25 +6172,25 @@
         <v>1918.972201260389</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.929097837794</v>
+        <v>1738.88181501696</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.805263157899</v>
+        <v>1591.757980337065</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.345177034121</v>
+        <v>1377.297894213287</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.303469578813</v>
+        <v>1197.256186757979</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.529080292431</v>
+        <v>982.4817974715968</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1823101449924</v>
+        <v>829.1350273241583</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0325117520409</v>
+        <v>682.985228931207</v>
       </c>
     </row>
     <row r="26">
@@ -6200,55 +6200,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467804</v>
+        <v>698.9037015467796</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>603.845421545561</v>
+        <v>1045.699547878785</v>
       </c>
       <c r="L26" t="n">
-        <v>1184.800837351329</v>
+        <v>1496.733761127194</v>
       </c>
       <c r="M26" t="n">
-        <v>1718.332742023253</v>
+        <v>2030.265665799118</v>
       </c>
       <c r="N26" t="n">
-        <v>2265.111559082035</v>
+        <v>2577.0444828579</v>
       </c>
       <c r="O26" t="n">
-        <v>3145.07620941149</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P26" t="n">
-        <v>3539.850575768668</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
         <v>3994.504809309627</v>
@@ -6260,16 +6260,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6300,10 +6300,10 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
         <v>413.0883853676542</v>
@@ -6367,31 +6367,31 @@
         <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L28" t="n">
         <v>786.3326864982168</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6400,7 +6400,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
         <v>2313.972430572251</v>
@@ -6455,37 +6455,37 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>1002.369923216576</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L29" t="n">
-        <v>1453.404136464984</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>1986.936041136909</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N29" t="n">
-        <v>2533.714858195691</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O29" t="n">
-        <v>3036.687329075028</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309627</v>
@@ -6537,28 +6537,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q30" t="n">
         <v>2579.688342997847</v>
@@ -6604,31 +6604,31 @@
         <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
         <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
         <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6649,7 +6649,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467807</v>
+        <v>698.9037015467779</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>924.7493799910139</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L32" t="n">
-        <v>1375.783593239423</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>1909.315497911347</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N32" t="n">
-        <v>2456.094314970129</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O32" t="n">
-        <v>2959.066785849466</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094415</v>
+        <v>3518.923563871311</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468332</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873064</v>
@@ -6795,7 +6795,7 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
         <v>2579.688342997847</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899659</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257035</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913837</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415466</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643389</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K34" t="n">
         <v>423.2675027973141</v>
@@ -6865,7 +6865,7 @@
         <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6892,7 +6892,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467807</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K35" t="n">
-        <v>603.845421545561</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L35" t="n">
-        <v>1054.87963479397</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M35" t="n">
-        <v>1588.411539465894</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N35" t="n">
-        <v>2475.303399835341</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O35" t="n">
-        <v>3355.268050164796</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P35" t="n">
-        <v>3750.042416521974</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q35" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U35" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7011,22 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
         <v>174.8241863873064</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O36" t="n">
         <v>2111.547193875144</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
         <v>786.3326864982171</v>
@@ -7111,7 +7111,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q37" t="n">
         <v>2313.972430572251</v>
@@ -7129,7 +7129,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W37" t="n">
         <v>1262.182746297367</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.107542689498</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D38" t="n">
         <v>1400.778593038483</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467779</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
@@ -7172,28 +7172,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K38" t="n">
-        <v>924.7493799910139</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L38" t="n">
-        <v>1375.783593239423</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M38" t="n">
-        <v>1909.315497911347</v>
+        <v>2200.835586644151</v>
       </c>
       <c r="N38" t="n">
-        <v>2456.094314970129</v>
+        <v>2747.614403702933</v>
       </c>
       <c r="O38" t="n">
-        <v>3336.058965299584</v>
+        <v>3250.58687458227</v>
       </c>
       <c r="P38" t="n">
-        <v>3730.833331656761</v>
+        <v>3645.361240939448</v>
       </c>
       <c r="Q38" t="n">
-        <v>3979.119693412444</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R38" t="n">
         <v>4057.345844834458</v>
@@ -7202,22 +7202,22 @@
         <v>3994.504809309625</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468332</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="39">
@@ -7263,13 +7263,13 @@
         <v>1227.062870902635</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O39" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P39" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q39" t="n">
         <v>2579.688342997847</v>
@@ -7339,7 +7339,7 @@
         <v>786.332686498217</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N40" t="n">
         <v>1564.908879308444</v>
@@ -7388,19 +7388,19 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467779</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
         <v>81.14691689668915</v>
@@ -7412,49 +7412,49 @@
         <v>270.0260478557145</v>
       </c>
       <c r="K41" t="n">
-        <v>924.7493799910139</v>
+        <v>792.1780824632694</v>
       </c>
       <c r="L41" t="n">
-        <v>1375.783593239423</v>
+        <v>1243.212295711678</v>
       </c>
       <c r="M41" t="n">
-        <v>2305.516762226675</v>
+        <v>1776.744200383602</v>
       </c>
       <c r="N41" t="n">
-        <v>2852.295579285458</v>
+        <v>2323.523017442385</v>
       </c>
       <c r="O41" t="n">
-        <v>3355.268050164795</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P41" t="n">
-        <v>3750.042416521972</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q41" t="n">
         <v>3998.328778277655</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468332</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="42">
@@ -7506,7 +7506,7 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P42" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q42" t="n">
         <v>2579.688342997847</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D43" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E43" t="n">
         <v>449.4840331913842</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="44">
@@ -7622,73 +7622,73 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E44" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467788</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J44" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K44" t="n">
-        <v>603.8454215455608</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L44" t="n">
-        <v>1054.879634793969</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M44" t="n">
-        <v>1588.411539465894</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N44" t="n">
-        <v>2468.655602521438</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O44" t="n">
-        <v>2971.628073400775</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P44" t="n">
-        <v>3684.98316084772</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R44" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y44" t="n">
         <v>2372.257749805548</v>
@@ -7722,28 +7722,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O45" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q45" t="n">
         <v>2579.688342997847</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G46" t="n">
         <v>229.7905149643394</v>
@@ -7801,25 +7801,25 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N46" t="n">
         <v>1564.908879308444</v>
       </c>
       <c r="O46" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P46" t="n">
         <v>2189.856749167329</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
   </sheetData>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>61.76773444257304</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9650,16 +9650,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>339.7991449754625</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>277.2206841544153</v>
       </c>
       <c r="L26" t="n">
-        <v>131.2335379367267</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>233.4533865158199</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>277.220684154416</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10364,10 +10364,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>122.1718867553249</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>167.736966642837</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10595,19 +10595,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>343.5485285966315</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>277.2206841544151</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>40.02214132148694</v>
       </c>
       <c r="R38" t="n">
-        <v>19.40311602546622</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,13 +11060,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>190.2350110279885</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>400.2032972882107</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11075,10 +11075,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11306,16 +11306,16 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>336.8335818149109</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>277.2206841544156</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.16194852731947</v>
+        <v>15.16194852731945</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3516754465272</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>116.1411757178485</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23312,13 +23312,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0739556344217</v>
+        <v>224.0739556344216</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>100.1092526642522</v>
+        <v>322.3197523929326</v>
       </c>
       <c r="X11" t="n">
         <v>342.8098843539887</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.910763857457</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5127463220888</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.83325783291743</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8337985898404</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.25734299683311</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.010936345567</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>192.6277329516888</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>225.2164269993476</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7618252962026</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0091537477815</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>379.9548294172311</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>50.6398838090243</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.6557134484456</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26654546369545</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9967538151398</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8310421456546</v>
+        <v>300.8310421456545</v>
       </c>
       <c r="W14" t="n">
-        <v>21.74274690955182</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.3256047741475</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.694256693732</v>
       </c>
       <c r="E16" t="n">
         <v>119.5127463220888</v>
       </c>
       <c r="F16" t="n">
-        <v>118.4998316984509</v>
+        <v>96.56889515790164</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43120408535776</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>170.6577208419735</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23729,10 +23729,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8374887204077</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>24.19965327004138</v>
+        <v>291.3765388279346</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>35.29140884510288</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>6.369194317411029</v>
       </c>
     </row>
     <row r="18">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>79.18123646338705</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23975,10 +23975,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0340171291889</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>25.00312486126038</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>253.8559055270619</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1408067.330884794</v>
+        <v>1408067.330884795</v>
       </c>
     </row>
     <row r="16">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61445.72540377788</v>
+        <v>61445.72540377787</v>
       </c>
       <c r="C2" t="n">
         <v>61446.09750571306</v>
       </c>
       <c r="D2" t="n">
-        <v>61446.56591403513</v>
+        <v>61446.56591403514</v>
       </c>
       <c r="E2" t="n">
-        <v>54715.64176896294</v>
+        <v>54715.64176896293</v>
       </c>
       <c r="F2" t="n">
-        <v>54715.64176896294</v>
+        <v>54715.64176896293</v>
       </c>
       <c r="G2" t="n">
         <v>59589.90100213825</v>
       </c>
       <c r="H2" t="n">
-        <v>59589.90100213825</v>
+        <v>59589.90100213826</v>
       </c>
       <c r="I2" t="n">
         <v>61578.13273982122</v>
@@ -26341,16 +26341,16 @@
         <v>61578.13273982122</v>
       </c>
       <c r="L2" t="n">
+        <v>61578.13273982122</v>
+      </c>
+      <c r="M2" t="n">
         <v>61578.13273982121</v>
       </c>
-      <c r="M2" t="n">
-        <v>61578.13273982124</v>
-      </c>
       <c r="N2" t="n">
-        <v>61578.13273982117</v>
+        <v>61578.13273982118</v>
       </c>
       <c r="O2" t="n">
-        <v>61578.13273982122</v>
+        <v>61578.13273982116</v>
       </c>
       <c r="P2" t="n">
         <v>61578.13273982118</v>
@@ -26366,10 +26366,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14118.19859945443</v>
+        <v>14118.19859945444</v>
       </c>
       <c r="D3" t="n">
-        <v>16714.64353072196</v>
+        <v>16714.64353072194</v>
       </c>
       <c r="E3" t="n">
         <v>1117168.84147192</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22820.44161905857</v>
+        <v>22820.44161905845</v>
       </c>
       <c r="J3" t="n">
-        <v>25410.44272728114</v>
+        <v>25410.44272728124</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487405</v>
+        <v>37580.10929487407</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.568292073</v>
+        <v>207188.5682920729</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>421594.991239873</v>
       </c>
       <c r="E4" t="n">
-        <v>37585.46710210905</v>
+        <v>37585.46710210911</v>
       </c>
       <c r="F4" t="n">
-        <v>37585.46710210905</v>
+        <v>37585.46710210911</v>
       </c>
       <c r="G4" t="n">
-        <v>74613.22686521037</v>
+        <v>74613.22686521044</v>
       </c>
       <c r="H4" t="n">
-        <v>74613.2268652104</v>
+        <v>74613.22686521042</v>
       </c>
       <c r="I4" t="n">
-        <v>85473.00365913918</v>
+        <v>85473.00365913913</v>
       </c>
       <c r="J4" t="n">
+        <v>80755.36360646601</v>
+      </c>
+      <c r="K4" t="n">
+        <v>80755.36360646599</v>
+      </c>
+      <c r="L4" t="n">
+        <v>80755.36360646595</v>
+      </c>
+      <c r="M4" t="n">
         <v>80755.36360646598</v>
       </c>
-      <c r="K4" t="n">
-        <v>80755.36360646601</v>
-      </c>
-      <c r="L4" t="n">
-        <v>80755.36360646599</v>
-      </c>
-      <c r="M4" t="n">
-        <v>80755.36360646599</v>
-      </c>
       <c r="N4" t="n">
-        <v>80755.36360646598</v>
+        <v>80755.36360646595</v>
       </c>
       <c r="O4" t="n">
-        <v>80755.36360646598</v>
+        <v>80755.36360646597</v>
       </c>
       <c r="P4" t="n">
         <v>80755.36360646598</v>
@@ -26476,7 +26476,7 @@
         <v>34391.06348367693</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.58029657604</v>
+        <v>76569.58029657602</v>
       </c>
       <c r="F5" t="n">
         <v>76569.58029657602</v>
@@ -26488,7 +26488,7 @@
         <v>80518.73305696448</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.38360144483</v>
+        <v>85736.38360144482</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26497,10 +26497,10 @@
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="N5" t="n">
         <v>89377.9416748061</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-403080.3840388979</v>
+        <v>-403084.7976167661</v>
       </c>
       <c r="C6" t="n">
-        <v>-413376.8480048979</v>
+        <v>-413381.2491793682</v>
       </c>
       <c r="D6" t="n">
-        <v>-411254.1323402367</v>
+        <v>-411258.5179010963</v>
       </c>
       <c r="E6" t="n">
-        <v>-1176608.247101642</v>
+        <v>-1176836.996800671</v>
       </c>
       <c r="F6" t="n">
-        <v>-59439.40562972213</v>
+        <v>-59668.15532875081</v>
       </c>
       <c r="G6" t="n">
-        <v>-133122.1682149107</v>
+        <v>-133188.4426061668</v>
       </c>
       <c r="H6" t="n">
-        <v>-95542.05892003662</v>
+        <v>-95608.33331129275</v>
       </c>
       <c r="I6" t="n">
-        <v>-132451.6961398214</v>
+        <v>-132451.6961398212</v>
       </c>
       <c r="J6" t="n">
-        <v>-133965.615268732</v>
+        <v>-133965.6152687321</v>
       </c>
       <c r="K6" t="n">
         <v>-108555.1725414509</v>
       </c>
       <c r="L6" t="n">
-        <v>-146135.281836325</v>
+        <v>-146135.2818363249</v>
       </c>
       <c r="M6" t="n">
-        <v>-315743.7408335239</v>
+        <v>-315743.7408335238</v>
       </c>
       <c r="N6" t="n">
         <v>-108555.1725414509</v>
@@ -26692,25 +26692,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="J2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="K2" t="n">
         <v>46.97513661859256</v>
-      </c>
-      <c r="K2" t="n">
-        <v>46.97513661859257</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859256</v>
@@ -26722,10 +26722,10 @@
         <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.50424729953858</v>
+        <v>15.5042472995386</v>
       </c>
       <c r="D3" t="n">
         <v>35.02126071912533</v>
@@ -26796,10 +26796,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022925</v>
@@ -26808,7 +26808,7 @@
         <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2180761996668</v>
+        <v>917.2180761996664</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
@@ -26817,10 +26817,10 @@
         <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
         <v>1014.336461208614</v>
@@ -26829,7 +26829,7 @@
         <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,10 +26960,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.50424729953858</v>
+        <v>15.5042472995386</v>
       </c>
       <c r="D3" t="n">
-        <v>19.51701341958675</v>
+        <v>19.51701341958672</v>
       </c>
       <c r="E3" t="n">
         <v>1054.755439874173</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.8166207973743</v>
+        <v>85.81662079737384</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11838500894783</v>
+        <v>97.11838500894817</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27637,7 +27637,7 @@
         <v>208.0729649713488</v>
       </c>
       <c r="J5" t="n">
-        <v>6.659224593851863</v>
+        <v>6.659224593851857</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.259908116783811</v>
+        <v>3.259908116783805</v>
       </c>
       <c r="R5" t="n">
         <v>145.9538669886687</v>
@@ -27950,7 +27950,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I9" t="n">
-        <v>86.80307722268739</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92121632448034</v>
+        <v>26.92121632448039</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="T19" t="n">
-        <v>11.47954295044772</v>
+        <v>11.47954295044704</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="T22" t="n">
-        <v>11.47954295044772</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89635294307291</v>
+        <v>11.47954295044715</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="D25" t="n">
-        <v>11.47954295044781</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89635294307291</v>
+        <v>11.47954295044713</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307297</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -30411,10 +30411,10 @@
         <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
+        <v>46.97513661859273</v>
+      </c>
+      <c r="N40" t="n">
         <v>46.97513661859256</v>
-      </c>
-      <c r="N40" t="n">
-        <v>46.97513661859267</v>
       </c>
       <c r="O40" t="n">
         <v>46.97513661859256</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859216</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859306</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06232863235995405</v>
+        <v>0.06232863235995411</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6383231061563795</v>
+        <v>0.6383231061563802</v>
       </c>
       <c r="I5" t="n">
-        <v>2.402924599057131</v>
+        <v>2.402924599057133</v>
       </c>
       <c r="J5" t="n">
-        <v>5.290064760760655</v>
+        <v>5.29006476076066</v>
       </c>
       <c r="K5" t="n">
-        <v>7.928435768557511</v>
+        <v>7.928435768557518</v>
       </c>
       <c r="L5" t="n">
-        <v>9.835925651143457</v>
+        <v>9.835925651143466</v>
       </c>
       <c r="M5" t="n">
-        <v>10.94436246687479</v>
+        <v>10.9443624668748</v>
       </c>
       <c r="N5" t="n">
-        <v>11.12145369356751</v>
+        <v>11.12145369356752</v>
       </c>
       <c r="O5" t="n">
-        <v>10.50167335553822</v>
+        <v>10.50167335553823</v>
       </c>
       <c r="P5" t="n">
-        <v>8.962935244151849</v>
+        <v>8.962935244151858</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.730791097760993</v>
+        <v>6.730791097760999</v>
       </c>
       <c r="R5" t="n">
-        <v>3.915250952480967</v>
+        <v>3.915250952480971</v>
       </c>
       <c r="S5" t="n">
-        <v>1.420313709902454</v>
+        <v>1.420313709902456</v>
       </c>
       <c r="T5" t="n">
-        <v>0.272843588155699</v>
+        <v>0.2728435881556993</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004986290588796323</v>
+        <v>0.004986290588796328</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03334875834240374</v>
+        <v>0.03334875834240377</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3220787976753204</v>
+        <v>0.3220787976753207</v>
       </c>
       <c r="I6" t="n">
-        <v>1.148191899069603</v>
+        <v>1.148191899069604</v>
       </c>
       <c r="J6" t="n">
-        <v>3.150726330937365</v>
+        <v>3.150726330937367</v>
       </c>
       <c r="K6" t="n">
-        <v>5.385093139878415</v>
+        <v>5.38509313987842</v>
       </c>
       <c r="L6" t="n">
-        <v>7.240922288336392</v>
+        <v>7.240922288336399</v>
       </c>
       <c r="M6" t="n">
-        <v>8.449814778248525</v>
+        <v>8.449814778248534</v>
       </c>
       <c r="N6" t="n">
-        <v>8.673456232220174</v>
+        <v>8.673456232220182</v>
       </c>
       <c r="O6" t="n">
-        <v>7.934517955264806</v>
+        <v>7.934517955264814</v>
       </c>
       <c r="P6" t="n">
-        <v>6.368150178559536</v>
+        <v>6.368150178559542</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.256939749111047</v>
+        <v>4.256939749111051</v>
       </c>
       <c r="R6" t="n">
-        <v>2.070548346908191</v>
+        <v>2.070548346908193</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6194385595617533</v>
+        <v>0.6194385595617539</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1344188987573203</v>
+        <v>0.1344188987573204</v>
       </c>
       <c r="U6" t="n">
-        <v>0.002193997259368668</v>
+        <v>0.00219399725936867</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02795847873687285</v>
+        <v>0.02795847873687287</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2485762927696515</v>
+        <v>0.2485762927696517</v>
       </c>
       <c r="I7" t="n">
-        <v>0.840787706014322</v>
+        <v>0.8407877060143227</v>
       </c>
       <c r="J7" t="n">
-        <v>1.97666444669691</v>
+        <v>1.976664446696912</v>
       </c>
       <c r="K7" t="n">
-        <v>3.24826689324759</v>
+        <v>3.248266893247593</v>
       </c>
       <c r="L7" t="n">
-        <v>4.156663284207442</v>
+        <v>4.156663284207446</v>
       </c>
       <c r="M7" t="n">
-        <v>4.382618625999077</v>
+        <v>4.382618625999081</v>
       </c>
       <c r="N7" t="n">
-        <v>4.2784097507071</v>
+        <v>4.278409750707103</v>
       </c>
       <c r="O7" t="n">
-        <v>3.95180388546272</v>
+        <v>3.951803885462724</v>
       </c>
       <c r="P7" t="n">
-        <v>3.381450919230511</v>
+        <v>3.381450919230514</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.341141342230326</v>
+        <v>2.341141342230328</v>
       </c>
       <c r="R7" t="n">
-        <v>1.25711487120521</v>
+        <v>1.257114871205211</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4872400339871385</v>
+        <v>0.4872400339871389</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1194589546030021</v>
+        <v>0.1194589546030023</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001525007931102157</v>
+        <v>0.001525007931102159</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31546,16 +31546,16 @@
         <v>15.20362680796963</v>
       </c>
       <c r="R8" t="n">
-        <v>8.843836255870379</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S8" t="n">
         <v>3.208229059847512</v>
       </c>
       <c r="T8" t="n">
-        <v>0.6163037941626979</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7275171330520188</v>
+        <v>0.7275171330520187</v>
       </c>
       <c r="I9" t="n">
         <v>2.593555628727678</v>
       </c>
       <c r="J9" t="n">
-        <v>7.11691487877999</v>
+        <v>7.116914878779989</v>
       </c>
       <c r="K9" t="n">
         <v>12.16394109335884</v>
@@ -31613,7 +31613,7 @@
         <v>19.0865870919233</v>
       </c>
       <c r="N9" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O9" t="n">
         <v>17.92262575689049</v>
@@ -31671,22 +31671,22 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H10" t="n">
         <v>0.5614884095623703</v>
       </c>
       <c r="I10" t="n">
-        <v>1.899185745227322</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J10" t="n">
-        <v>4.464923682174388</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K10" t="n">
         <v>7.337241180170845</v>
       </c>
       <c r="L10" t="n">
-        <v>9.389142586894684</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M10" t="n">
         <v>9.899534402948818</v>
@@ -31695,10 +31695,10 @@
         <v>9.664145601394049</v>
       </c>
       <c r="O10" t="n">
-        <v>8.926402650179686</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P10" t="n">
-        <v>7.638079550938413</v>
+        <v>7.638079550938412</v>
       </c>
       <c r="Q10" t="n">
         <v>5.288210368587925</v>
@@ -32087,7 +32087,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
         <v>557.7086478970249</v>
@@ -32096,7 +32096,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026448</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32333,7 +32333,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32552,7 +32552,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138795</v>
@@ -32570,7 +32570,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026446</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33023,10 +33023,10 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138795</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33512,13 +33512,13 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970255</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33737,7 +33737,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138795</v>
@@ -33749,7 +33749,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P36" t="n">
         <v>447.6103584002926</v>
@@ -33980,7 +33980,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837924</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34223,13 +34223,13 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970255</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
         <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49963293754656</v>
+        <v>72.49963293754661</v>
       </c>
       <c r="K13" t="n">
         <v>232.9688758687999</v>
@@ -35580,13 +35580,13 @@
         <v>371.7781624920204</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2743465471201</v>
+        <v>329.2743465471202</v>
       </c>
       <c r="P13" t="n">
         <v>261.8782874695908</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.315454862374</v>
+        <v>105.3154548623741</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
         <v>415.1124034525805</v>
@@ -35744,7 +35744,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49963293754654</v>
+        <v>72.49963293754658</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9688758687998</v>
+        <v>232.9688758687999</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6785884946784</v>
+        <v>346.6785884946785</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5545957179641</v>
+        <v>374.5545957179642</v>
       </c>
       <c r="N16" t="n">
         <v>371.7781624920204</v>
       </c>
       <c r="O16" t="n">
-        <v>329.27434654712</v>
+        <v>329.2743465471201</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8782874695907</v>
+        <v>261.8782874695908</v>
       </c>
       <c r="Q16" t="n">
         <v>105.315454862374</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222572</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597809</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -35981,7 +35981,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302265</v>
@@ -36200,7 +36200,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340053</v>
@@ -36218,7 +36218,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>398.9590209979734</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923319</v>
@@ -36370,16 +36370,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>847.8521458636815</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597787</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>614.4119707098157</v>
       </c>
       <c r="L26" t="n">
-        <v>586.8236523290586</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302265</v>
@@ -36607,7 +36607,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193716</v>
@@ -36616,7 +36616,7 @@
         <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597773</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340053</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
@@ -36768,7 +36768,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36832,7 +36832,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>570.6446730712203</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923319</v>
@@ -36847,13 +36847,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>675.9826703737876</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597774</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923319</v>
@@ -37084,10 +37084,10 @@
         <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>520.9338729746966</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>418.5312714465564</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37160,13 +37160,13 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554004</v>
@@ -37315,19 +37315,19 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>895.8503640095428</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>675.9826703737867</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340053</v>
@@ -37397,7 +37397,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
@@ -37467,7 +37467,7 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
         <v>394.6085160120763</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>290.8164461252064</v>
       </c>
       <c r="R38" t="n">
-        <v>79.01631456769094</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,7 +37628,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004591</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,10 +37707,10 @@
         <v>366.7325087887906</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120765</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37780,13 +37780,13 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>527.4262975833889</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>939.1244131184372</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129113</v>
@@ -37795,10 +37795,10 @@
         <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222472</v>
@@ -37871,13 +37871,13 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165885</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861326</v>
@@ -37953,7 +37953,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554004</v>
@@ -38026,16 +38026,16 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>889.1354172278221</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>675.9826703737872</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597776</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412319</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
         <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564867</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
